--- a/branches/HIVDiagnosis-resource-dev---FIG-18/all-profiles.xlsx
+++ b/branches/HIVDiagnosis-resource-dev---FIG-18/all-profiles.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5349" uniqueCount="734">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5349" uniqueCount="735">
   <si>
     <t>Property</t>
   </si>
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-03T15:13:54+00:00</t>
+    <t>2023-02-06T14:28:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -699,6 +699,13 @@
   <si>
     <t>verificationStatus is not required.  For example, when a patient has abdominal pain in the ED, there is not likely going to be a verification status.
 The data type is CodeableConcept because verificationStatus has some clinical judgment involved, such that there might need to be more specificity than the required FHIR value set allows. For example, a SNOMED coding might allow for additional specificity.</t>
+  </si>
+  <si>
+    <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
+  &lt;coding&gt;
+    &lt;code value="confirmed"/&gt;
+  &lt;/coding&gt;
+&lt;/valueCodeableConcept&gt;</t>
   </si>
   <si>
     <t>The verification status to support or decline the clinical status of the condition or diagnosis.</t>
@@ -2619,7 +2626,7 @@
         <v>2</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="25">
@@ -2627,7 +2634,7 @@
         <v>4</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="26">
@@ -2643,7 +2650,7 @@
         <v>8</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="28">
@@ -2651,7 +2658,7 @@
         <v>10</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="29">
@@ -2705,7 +2712,7 @@
         <v>23</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="36">
@@ -2741,7 +2748,7 @@
         <v>31</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="41">
@@ -2749,7 +2756,7 @@
         <v>33</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="42">
@@ -2781,7 +2788,7 @@
         <v>2</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
     </row>
     <row r="46">
@@ -2789,7 +2796,7 @@
         <v>4</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
     </row>
     <row r="47">
@@ -2805,7 +2812,7 @@
         <v>8</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
     </row>
     <row r="49">
@@ -2813,7 +2820,7 @@
         <v>10</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
     </row>
     <row r="50">
@@ -2867,7 +2874,7 @@
         <v>23</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
     </row>
     <row r="57">
@@ -2903,7 +2910,7 @@
         <v>31</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
     </row>
     <row r="62">
@@ -2911,7 +2918,7 @@
         <v>33</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="63">
@@ -2965,7 +2972,7 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="8.97265625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="50.390625" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="39.97265625" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="17.171875" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="17.65625" customWidth="true" bestFit="true"/>
@@ -5216,7 +5223,7 @@
       </c>
       <c r="F22" s="2"/>
       <c r="G22" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>82</v>
@@ -5251,7 +5258,7 @@
         <v>75</v>
       </c>
       <c r="T22" t="s" s="2">
-        <v>75</v>
+        <v>221</v>
       </c>
       <c r="U22" t="s" s="2">
         <v>75</v>
@@ -5269,10 +5276,10 @@
         <v>166</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AB22" t="s" s="2">
         <v>75</v>
@@ -5299,7 +5306,7 @@
         <v>82</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>94</v>
@@ -5310,10 +5317,10 @@
         <v>3</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C23" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
@@ -5339,13 +5346,13 @@
         <v>172</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="O23" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="P23" s="2"/>
       <c r="Q23" t="s" s="2">
@@ -5374,10 +5381,10 @@
         <v>177</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AA23" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AB23" t="s" s="2">
         <v>75</v>
@@ -5395,7 +5402,7 @@
         <v>75</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AH23" t="s" s="2">
         <v>76</v>
@@ -5415,10 +5422,10 @@
         <v>3</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C24" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
@@ -5444,13 +5451,13 @@
         <v>172</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="O24" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="P24" s="2"/>
       <c r="Q24" t="s" s="2">
@@ -5479,10 +5486,10 @@
         <v>106</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AA24" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AB24" t="s" s="2">
         <v>75</v>
@@ -5500,7 +5507,7 @@
         <v>75</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AH24" t="s" s="2">
         <v>76</v>
@@ -5520,14 +5527,14 @@
         <v>3</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C25" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="F25" s="2"/>
       <c r="G25" t="s" s="2">
@@ -5549,14 +5556,14 @@
         <v>172</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q25" t="s" s="2">
         <v>75</v>
@@ -5581,13 +5588,13 @@
         <v>75</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AA25" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AB25" t="s" s="2">
         <v>75</v>
@@ -5605,7 +5612,7 @@
         <v>75</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>76</v>
@@ -5625,10 +5632,10 @@
         <v>3</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C26" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
@@ -5654,13 +5661,13 @@
         <v>172</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="O26" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="P26" s="2"/>
       <c r="Q26" t="s" s="2">
@@ -5686,13 +5693,13 @@
         <v>75</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AA26" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AB26" t="s" s="2">
         <v>75</v>
@@ -5710,7 +5717,7 @@
         <v>75</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>76</v>
@@ -5730,14 +5737,14 @@
         <v>3</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C27" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="F27" s="2"/>
       <c r="G27" t="s" s="2">
@@ -5756,17 +5763,17 @@
         <v>83</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q27" t="s" s="2">
         <v>75</v>
@@ -5815,7 +5822,7 @@
         <v>75</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>82</v>
@@ -5835,10 +5842,10 @@
         <v>3</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C28" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
@@ -5861,16 +5868,16 @@
         <v>83</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="O28" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="P28" s="2"/>
       <c r="Q28" t="s" s="2">
@@ -5920,7 +5927,7 @@
         <v>75</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>76</v>
@@ -5940,10 +5947,10 @@
         <v>3</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C29" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
@@ -5966,16 +5973,16 @@
         <v>83</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="O29" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="P29" s="2"/>
       <c r="Q29" t="s" s="2">
@@ -6025,7 +6032,7 @@
         <v>75</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>76</v>
@@ -6045,10 +6052,10 @@
         <v>3</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C30" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
@@ -6071,16 +6078,16 @@
         <v>75</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="O30" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="P30" s="2"/>
       <c r="Q30" t="s" s="2">
@@ -6130,7 +6137,7 @@
         <v>75</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>76</v>
@@ -6139,7 +6146,7 @@
         <v>82</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>94</v>
@@ -6150,10 +6157,10 @@
         <v>3</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C31" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
@@ -6176,13 +6183,13 @@
         <v>83</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" s="2"/>
@@ -6233,7 +6240,7 @@
         <v>75</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>76</v>
@@ -6253,10 +6260,10 @@
         <v>3</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C32" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
@@ -6279,13 +6286,13 @@
         <v>83</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" s="2"/>
@@ -6336,7 +6343,7 @@
         <v>75</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>76</v>
@@ -6356,10 +6363,10 @@
         <v>3</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C33" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
@@ -6382,13 +6389,13 @@
         <v>83</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="O33" s="2"/>
       <c r="P33" s="2"/>
@@ -6439,7 +6446,7 @@
         <v>75</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>76</v>
@@ -6459,10 +6466,10 @@
         <v>3</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C34" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
@@ -6485,13 +6492,13 @@
         <v>75</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="O34" s="2"/>
       <c r="P34" s="2"/>
@@ -6542,7 +6549,7 @@
         <v>75</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>76</v>
@@ -6554,7 +6561,7 @@
         <v>75</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="35">
@@ -6562,10 +6569,10 @@
         <v>3</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C35" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
@@ -6665,10 +6672,10 @@
         <v>3</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C36" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
@@ -6770,14 +6777,14 @@
         <v>3</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C37" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="F37" s="2"/>
       <c r="G37" t="s" s="2">
@@ -6799,10 +6806,10 @@
         <v>126</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="O37" t="s" s="2">
         <v>129</v>
@@ -6857,7 +6864,7 @@
         <v>75</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>76</v>
@@ -6877,10 +6884,10 @@
         <v>3</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C38" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
@@ -6906,10 +6913,10 @@
         <v>172</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="O38" s="2"/>
       <c r="P38" s="2"/>
@@ -6936,13 +6943,13 @@
         <v>75</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AA38" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AB38" t="s" s="2">
         <v>75</v>
@@ -6960,7 +6967,7 @@
         <v>75</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>76</v>
@@ -6969,7 +6976,7 @@
         <v>82</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>94</v>
@@ -6980,10 +6987,10 @@
         <v>3</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C39" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
@@ -7006,13 +7013,13 @@
         <v>75</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="O39" s="2"/>
       <c r="P39" s="2"/>
@@ -7063,7 +7070,7 @@
         <v>75</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>76</v>
@@ -7072,7 +7079,7 @@
         <v>77</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>94</v>
@@ -7083,10 +7090,10 @@
         <v>3</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C40" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
@@ -7112,10 +7119,10 @@
         <v>172</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="O40" s="2"/>
       <c r="P40" s="2"/>
@@ -7142,13 +7149,13 @@
         <v>75</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AA40" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AB40" t="s" s="2">
         <v>75</v>
@@ -7166,7 +7173,7 @@
         <v>75</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>76</v>
@@ -7186,10 +7193,10 @@
         <v>3</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C41" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
@@ -7212,16 +7219,16 @@
         <v>75</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="O41" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="P41" s="2"/>
       <c r="Q41" t="s" s="2">
@@ -7271,7 +7278,7 @@
         <v>75</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AH41" t="s" s="2">
         <v>76</v>
@@ -7283,7 +7290,7 @@
         <v>75</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="42">
@@ -7291,10 +7298,10 @@
         <v>3</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C42" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
@@ -7394,10 +7401,10 @@
         <v>3</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C43" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
@@ -7499,14 +7506,14 @@
         <v>3</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C44" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="F44" s="2"/>
       <c r="G44" t="s" s="2">
@@ -7528,10 +7535,10 @@
         <v>126</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="O44" t="s" s="2">
         <v>129</v>
@@ -7586,7 +7593,7 @@
         <v>75</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>76</v>
@@ -7606,10 +7613,10 @@
         <v>3</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C45" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
@@ -7635,10 +7642,10 @@
         <v>172</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="O45" s="2"/>
       <c r="P45" s="2"/>
@@ -7665,13 +7672,13 @@
         <v>75</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AA45" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AB45" t="s" s="2">
         <v>75</v>
@@ -7689,7 +7696,7 @@
         <v>75</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AH45" t="s" s="2">
         <v>76</v>
@@ -7698,7 +7705,7 @@
         <v>77</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>94</v>
@@ -7709,10 +7716,10 @@
         <v>3</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C46" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
@@ -7735,13 +7742,13 @@
         <v>83</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="O46" s="2"/>
       <c r="P46" s="2"/>
@@ -7792,7 +7799,7 @@
         <v>75</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>76</v>
@@ -7801,7 +7808,7 @@
         <v>77</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>94</v>
@@ -7812,10 +7819,10 @@
         <v>3</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C47" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
@@ -7838,13 +7845,13 @@
         <v>75</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="O47" s="2"/>
       <c r="P47" s="2"/>
@@ -7895,7 +7902,7 @@
         <v>75</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AH47" t="s" s="2">
         <v>76</v>
@@ -7912,17 +7919,17 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C48" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="F48" s="2"/>
       <c r="G48" t="s" s="2">
@@ -7944,10 +7951,10 @@
         <v>78</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="O48" s="2"/>
       <c r="P48" s="2"/>
@@ -7998,7 +8005,7 @@
         <v>75</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AH48" t="s" s="2">
         <v>76</v>
@@ -8015,13 +8022,13 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C49" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
@@ -8120,13 +8127,13 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C50" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
@@ -8223,13 +8230,13 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C51" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
@@ -8328,13 +8335,13 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C52" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
@@ -8433,13 +8440,13 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C53" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
@@ -8538,13 +8545,13 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C54" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
@@ -8643,13 +8650,13 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C55" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
@@ -8748,13 +8755,13 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C56" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
@@ -8855,13 +8862,13 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C57" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
@@ -8887,14 +8894,14 @@
         <v>138</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="Q57" t="s" s="2">
         <v>75</v>
@@ -8941,7 +8948,7 @@
         <v>144</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="AH57" t="s" s="2">
         <v>76</v>
@@ -8958,16 +8965,16 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C58" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="D58" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="E58" t="s" s="2">
         <v>75</v>
@@ -8992,14 +8999,14 @@
         <v>138</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="Q58" t="s" s="2">
         <v>75</v>
@@ -9048,7 +9055,7 @@
         <v>75</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="AH58" t="s" s="2">
         <v>76</v>
@@ -9065,13 +9072,13 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C59" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
@@ -9168,13 +9175,13 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C60" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
@@ -9273,13 +9280,13 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C61" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" t="s" s="2">
@@ -9380,13 +9387,13 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C62" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
@@ -9487,13 +9494,13 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C63" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
@@ -9535,7 +9542,7 @@
       </c>
       <c r="R63" s="2"/>
       <c r="S63" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="T63" t="s" s="2">
         <v>75</v>
@@ -9594,13 +9601,13 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C64" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" t="s" s="2">
@@ -9699,13 +9706,13 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C65" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" t="s" s="2">
@@ -9802,13 +9809,13 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C66" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" t="s" s="2">
@@ -9907,13 +9914,13 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C67" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="D67" s="2"/>
       <c r="E67" t="s" s="2">
@@ -9936,70 +9943,70 @@
         <v>83</v>
       </c>
       <c r="L67" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="M67" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="N67" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="O67" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="P67" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="Q67" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R67" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="S67" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T67" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U67" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V67" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W67" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X67" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y67" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z67" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA67" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB67" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC67" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD67" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE67" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF67" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG67" t="s" s="2">
         <v>370</v>
-      </c>
-      <c r="M67" t="s" s="2">
-        <v>371</v>
-      </c>
-      <c r="N67" t="s" s="2">
-        <v>372</v>
-      </c>
-      <c r="O67" t="s" s="2">
-        <v>373</v>
-      </c>
-      <c r="P67" t="s" s="2">
-        <v>374</v>
-      </c>
-      <c r="Q67" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="R67" t="s" s="2">
-        <v>375</v>
-      </c>
-      <c r="S67" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T67" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U67" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V67" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W67" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X67" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y67" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z67" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA67" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB67" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC67" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD67" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE67" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF67" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG67" t="s" s="2">
-        <v>369</v>
       </c>
       <c r="AH67" t="s" s="2">
         <v>76</v>
@@ -10016,13 +10023,13 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C68" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="D68" s="2"/>
       <c r="E68" t="s" s="2">
@@ -10045,19 +10052,19 @@
         <v>83</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="O68" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="P68" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="Q68" t="s" s="2">
         <v>75</v>
@@ -10106,7 +10113,7 @@
         <v>75</v>
       </c>
       <c r="AG68" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AH68" t="s" s="2">
         <v>76</v>
@@ -10123,13 +10130,13 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C69" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" t="s" s="2">
@@ -10226,13 +10233,13 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C70" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" t="s" s="2">
@@ -10331,13 +10338,13 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C71" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" t="s" s="2">
@@ -10363,16 +10370,16 @@
         <v>102</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="O71" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="P71" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="Q71" t="s" s="2">
         <v>75</v>
@@ -10400,10 +10407,10 @@
         <v>166</v>
       </c>
       <c r="Z71" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="AA71" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AB71" t="s" s="2">
         <v>75</v>
@@ -10421,7 +10428,7 @@
         <v>75</v>
       </c>
       <c r="AG71" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="AH71" t="s" s="2">
         <v>76</v>
@@ -10438,13 +10445,13 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C72" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" t="s" s="2">
@@ -10470,16 +10477,16 @@
         <v>149</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="O72" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="P72" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="Q72" t="s" s="2">
         <v>75</v>
@@ -10528,7 +10535,7 @@
         <v>75</v>
       </c>
       <c r="AG72" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AH72" t="s" s="2">
         <v>76</v>
@@ -10545,17 +10552,17 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C73" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="D73" s="2"/>
       <c r="E73" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="F73" s="2"/>
       <c r="G73" t="s" s="2">
@@ -10577,13 +10584,13 @@
         <v>149</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="O73" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="P73" s="2"/>
       <c r="Q73" t="s" s="2">
@@ -10633,7 +10640,7 @@
         <v>75</v>
       </c>
       <c r="AG73" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="AH73" t="s" s="2">
         <v>76</v>
@@ -10650,17 +10657,17 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C74" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="D74" s="2"/>
       <c r="E74" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="F74" s="2"/>
       <c r="G74" t="s" s="2">
@@ -10682,13 +10689,13 @@
         <v>149</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="O74" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="P74" s="2"/>
       <c r="Q74" t="s" s="2">
@@ -10738,7 +10745,7 @@
         <v>75</v>
       </c>
       <c r="AG74" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="AH74" t="s" s="2">
         <v>76</v>
@@ -10755,13 +10762,13 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C75" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="D75" s="2"/>
       <c r="E75" t="s" s="2">
@@ -10787,10 +10794,10 @@
         <v>149</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="O75" s="2"/>
       <c r="P75" s="2"/>
@@ -10841,7 +10848,7 @@
         <v>75</v>
       </c>
       <c r="AG75" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="AH75" t="s" s="2">
         <v>76</v>
@@ -10858,13 +10865,13 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="C76" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="D76" s="2"/>
       <c r="E76" t="s" s="2">
@@ -10890,10 +10897,10 @@
         <v>149</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="O76" s="2"/>
       <c r="P76" s="2"/>
@@ -10944,7 +10951,7 @@
         <v>75</v>
       </c>
       <c r="AG76" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="AH76" t="s" s="2">
         <v>76</v>
@@ -10961,13 +10968,13 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C77" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="D77" s="2"/>
       <c r="E77" t="s" s="2">
@@ -10993,14 +11000,14 @@
         <v>199</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="N77" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="O77" s="2"/>
       <c r="P77" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="Q77" t="s" s="2">
         <v>75</v>
@@ -11049,7 +11056,7 @@
         <v>75</v>
       </c>
       <c r="AG77" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="AH77" t="s" s="2">
         <v>76</v>
@@ -11066,13 +11073,13 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="C78" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="D78" s="2"/>
       <c r="E78" t="s" s="2">
@@ -11095,19 +11102,19 @@
         <v>83</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="N78" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="O78" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="P78" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="Q78" t="s" s="2">
         <v>75</v>
@@ -11156,7 +11163,7 @@
         <v>75</v>
       </c>
       <c r="AG78" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="AH78" t="s" s="2">
         <v>76</v>
@@ -11173,13 +11180,13 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="C79" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="D79" s="2"/>
       <c r="E79" t="s" s="2">
@@ -11205,16 +11212,16 @@
         <v>102</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="O79" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="P79" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="Q79" t="s" s="2">
         <v>75</v>
@@ -11242,10 +11249,10 @@
         <v>166</v>
       </c>
       <c r="Z79" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="AA79" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="AB79" t="s" s="2">
         <v>75</v>
@@ -11263,7 +11270,7 @@
         <v>75</v>
       </c>
       <c r="AG79" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="AH79" t="s" s="2">
         <v>76</v>
@@ -11280,13 +11287,13 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="C80" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="D80" s="2"/>
       <c r="E80" t="s" s="2">
@@ -11309,19 +11316,19 @@
         <v>83</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="O80" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="P80" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="Q80" t="s" s="2">
         <v>75</v>
@@ -11370,7 +11377,7 @@
         <v>75</v>
       </c>
       <c r="AG80" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="AH80" t="s" s="2">
         <v>76</v>
@@ -11387,13 +11394,13 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="C81" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="D81" s="2"/>
       <c r="E81" t="s" s="2">
@@ -11416,19 +11423,19 @@
         <v>83</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="N81" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="O81" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="P81" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="Q81" t="s" s="2">
         <v>75</v>
@@ -11477,7 +11484,7 @@
         <v>75</v>
       </c>
       <c r="AG81" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="AH81" t="s" s="2">
         <v>76</v>
@@ -11494,13 +11501,13 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="C82" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="D82" s="2"/>
       <c r="E82" t="s" s="2">
@@ -11523,19 +11530,19 @@
         <v>83</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="O82" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="P82" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="Q82" t="s" s="2">
         <v>75</v>
@@ -11584,7 +11591,7 @@
         <v>75</v>
       </c>
       <c r="AG82" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="AH82" t="s" s="2">
         <v>76</v>
@@ -11601,13 +11608,13 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="C83" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="D83" s="2"/>
       <c r="E83" t="s" s="2">
@@ -11633,14 +11640,14 @@
         <v>172</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="N83" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="O83" s="2"/>
       <c r="P83" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="Q83" t="s" s="2">
         <v>75</v>
@@ -11668,10 +11675,10 @@
         <v>177</v>
       </c>
       <c r="Z83" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AA83" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AB83" t="s" s="2">
         <v>75</v>
@@ -11689,7 +11696,7 @@
         <v>75</v>
       </c>
       <c r="AG83" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="AH83" t="s" s="2">
         <v>76</v>
@@ -11706,13 +11713,13 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="C84" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="D84" s="2"/>
       <c r="E84" t="s" s="2">
@@ -11735,19 +11742,19 @@
         <v>75</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="N84" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="O84" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="P84" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="Q84" t="s" s="2">
         <v>75</v>
@@ -11796,7 +11803,7 @@
         <v>75</v>
       </c>
       <c r="AG84" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AH84" t="s" s="2">
         <v>76</v>
@@ -11813,13 +11820,13 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="C85" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="D85" s="2"/>
       <c r="E85" t="s" s="2">
@@ -11842,19 +11849,19 @@
         <v>75</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="N85" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="O85" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="P85" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="Q85" t="s" s="2">
         <v>75</v>
@@ -11903,7 +11910,7 @@
         <v>75</v>
       </c>
       <c r="AG85" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="AH85" t="s" s="2">
         <v>76</v>
@@ -11920,13 +11927,13 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="C86" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="D86" s="2"/>
       <c r="E86" t="s" s="2">
@@ -11949,19 +11956,19 @@
         <v>75</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="N86" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="O86" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="P86" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="Q86" t="s" s="2">
         <v>75</v>
@@ -12010,7 +12017,7 @@
         <v>75</v>
       </c>
       <c r="AG86" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="AH86" t="s" s="2">
         <v>76</v>
@@ -12022,18 +12029,18 @@
         <v>75</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="C87" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="D87" s="2"/>
       <c r="E87" t="s" s="2">
@@ -12130,13 +12137,13 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="C88" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="D88" s="2"/>
       <c r="E88" t="s" s="2">
@@ -12235,17 +12242,17 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="C89" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="D89" s="2"/>
       <c r="E89" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="F89" s="2"/>
       <c r="G89" t="s" s="2">
@@ -12267,10 +12274,10 @@
         <v>126</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="N89" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="O89" t="s" s="2">
         <v>129</v>
@@ -12325,7 +12332,7 @@
         <v>75</v>
       </c>
       <c r="AG89" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AH89" t="s" s="2">
         <v>76</v>
@@ -12342,13 +12349,13 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="C90" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="D90" s="2"/>
       <c r="E90" t="s" s="2">
@@ -12374,14 +12381,14 @@
         <v>172</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="N90" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="O90" s="2"/>
       <c r="P90" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="Q90" t="s" s="2">
         <v>75</v>
@@ -12409,10 +12416,10 @@
         <v>177</v>
       </c>
       <c r="Z90" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="AA90" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="AB90" t="s" s="2">
         <v>75</v>
@@ -12430,7 +12437,7 @@
         <v>75</v>
       </c>
       <c r="AG90" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="AH90" t="s" s="2">
         <v>76</v>
@@ -12447,13 +12454,13 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="C91" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="D91" s="2"/>
       <c r="E91" t="s" s="2">
@@ -12476,17 +12483,17 @@
         <v>75</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="N91" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="O91" s="2"/>
       <c r="P91" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="Q91" t="s" s="2">
         <v>75</v>
@@ -12535,7 +12542,7 @@
         <v>75</v>
       </c>
       <c r="AG91" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="AH91" t="s" s="2">
         <v>76</v>
@@ -12552,13 +12559,13 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="C92" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="D92" s="2"/>
       <c r="E92" t="s" s="2">
@@ -12581,19 +12588,19 @@
         <v>75</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="N92" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="O92" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="P92" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="Q92" t="s" s="2">
         <v>75</v>
@@ -12642,7 +12649,7 @@
         <v>75</v>
       </c>
       <c r="AG92" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="AH92" t="s" s="2">
         <v>76</v>
@@ -12659,13 +12666,13 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C93" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="D93" s="2"/>
       <c r="E93" t="s" s="2">
@@ -12688,17 +12695,17 @@
         <v>75</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="N93" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="O93" s="2"/>
       <c r="P93" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="Q93" t="s" s="2">
         <v>75</v>
@@ -12747,7 +12754,7 @@
         <v>75</v>
       </c>
       <c r="AG93" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="AH93" t="s" s="2">
         <v>76</v>
@@ -12764,13 +12771,13 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="C94" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="D94" s="2"/>
       <c r="E94" t="s" s="2">
@@ -12796,14 +12803,14 @@
         <v>102</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="N94" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="O94" s="2"/>
       <c r="P94" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="Q94" t="s" s="2">
         <v>75</v>
@@ -12831,10 +12838,10 @@
         <v>166</v>
       </c>
       <c r="Z94" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="AA94" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="AB94" t="s" s="2">
         <v>75</v>
@@ -12852,7 +12859,7 @@
         <v>75</v>
       </c>
       <c r="AG94" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="AH94" t="s" s="2">
         <v>76</v>
@@ -12869,13 +12876,13 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="C95" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="D95" s="2"/>
       <c r="E95" t="s" s="2">
@@ -12901,14 +12908,14 @@
         <v>205</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="N95" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="O95" s="2"/>
       <c r="P95" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="Q95" t="s" s="2">
         <v>75</v>
@@ -12957,7 +12964,7 @@
         <v>75</v>
       </c>
       <c r="AG95" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="AH95" t="s" s="2">
         <v>76</v>
@@ -12966,7 +12973,7 @@
         <v>82</v>
       </c>
       <c r="AJ95" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="AK95" t="s" s="2">
         <v>94</v>
@@ -12974,13 +12981,13 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="C96" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="D96" s="2"/>
       <c r="E96" t="s" s="2">
@@ -13006,10 +13013,10 @@
         <v>199</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="N96" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="O96" s="2"/>
       <c r="P96" s="2"/>
@@ -13060,7 +13067,7 @@
         <v>75</v>
       </c>
       <c r="AG96" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="AH96" t="s" s="2">
         <v>76</v>
@@ -13077,13 +13084,13 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="C97" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="D97" s="2"/>
       <c r="E97" t="s" s="2">
@@ -13106,19 +13113,19 @@
         <v>75</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="N97" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="O97" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="P97" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="Q97" t="s" s="2">
         <v>75</v>
@@ -13167,7 +13174,7 @@
         <v>75</v>
       </c>
       <c r="AG97" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="AH97" t="s" s="2">
         <v>76</v>
@@ -13184,13 +13191,13 @@
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="C98" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="D98" s="2"/>
       <c r="E98" t="s" s="2">
@@ -13287,13 +13294,13 @@
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="C99" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="D99" s="2"/>
       <c r="E99" t="s" s="2">
@@ -13392,17 +13399,17 @@
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="C100" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="D100" s="2"/>
       <c r="E100" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="F100" s="2"/>
       <c r="G100" t="s" s="2">
@@ -13424,10 +13431,10 @@
         <v>126</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="N100" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="O100" t="s" s="2">
         <v>129</v>
@@ -13482,7 +13489,7 @@
         <v>75</v>
       </c>
       <c r="AG100" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AH100" t="s" s="2">
         <v>76</v>
@@ -13499,13 +13506,13 @@
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="C101" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="D101" s="2"/>
       <c r="E101" t="s" s="2">
@@ -13531,16 +13538,16 @@
         <v>172</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="N101" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="O101" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="P101" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="Q101" t="s" s="2">
         <v>75</v>
@@ -13589,7 +13596,7 @@
         <v>75</v>
       </c>
       <c r="AG101" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="AH101" t="s" s="2">
         <v>82</v>
@@ -13606,13 +13613,13 @@
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="C102" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="D102" s="2"/>
       <c r="E102" t="s" s="2">
@@ -13635,19 +13642,19 @@
         <v>75</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="N102" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="O102" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="P102" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="Q102" t="s" s="2">
         <v>75</v>
@@ -13696,7 +13703,7 @@
         <v>75</v>
       </c>
       <c r="AG102" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="AH102" t="s" s="2">
         <v>76</v>
@@ -13713,17 +13720,17 @@
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="C103" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="D103" s="2"/>
       <c r="E103" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="F103" s="2"/>
       <c r="G103" t="s" s="2">
@@ -13742,16 +13749,16 @@
         <v>75</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="N103" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="O103" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="P103" s="2"/>
       <c r="Q103" t="s" s="2">
@@ -13801,7 +13808,7 @@
         <v>75</v>
       </c>
       <c r="AG103" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="AH103" t="s" s="2">
         <v>76</v>
@@ -13818,13 +13825,13 @@
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="C104" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="D104" s="2"/>
       <c r="E104" t="s" s="2">
@@ -13850,16 +13857,16 @@
         <v>205</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="N104" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="O104" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="P104" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="Q104" t="s" s="2">
         <v>75</v>
@@ -13908,7 +13915,7 @@
         <v>75</v>
       </c>
       <c r="AG104" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="AH104" t="s" s="2">
         <v>76</v>
@@ -13925,13 +13932,13 @@
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="C105" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="D105" s="2"/>
       <c r="E105" t="s" s="2">
@@ -13954,19 +13961,19 @@
         <v>83</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="N105" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="O105" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="P105" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="Q105" t="s" s="2">
         <v>75</v>
@@ -14015,7 +14022,7 @@
         <v>75</v>
       </c>
       <c r="AG105" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="AH105" t="s" s="2">
         <v>76</v>
@@ -14032,13 +14039,13 @@
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="C106" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="D106" s="2"/>
       <c r="E106" t="s" s="2">
@@ -14135,13 +14142,13 @@
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="C107" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="D107" s="2"/>
       <c r="E107" t="s" s="2">
@@ -14240,17 +14247,17 @@
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="C108" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="D108" s="2"/>
       <c r="E108" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="F108" s="2"/>
       <c r="G108" t="s" s="2">
@@ -14272,10 +14279,10 @@
         <v>126</v>
       </c>
       <c r="M108" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="N108" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="O108" t="s" s="2">
         <v>129</v>
@@ -14330,7 +14337,7 @@
         <v>75</v>
       </c>
       <c r="AG108" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AH108" t="s" s="2">
         <v>76</v>
@@ -14347,13 +14354,13 @@
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="C109" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="D109" s="2"/>
       <c r="E109" t="s" s="2">
@@ -14376,16 +14383,16 @@
         <v>83</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="M109" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="N109" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="O109" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="P109" s="2"/>
       <c r="Q109" t="s" s="2">
@@ -14435,7 +14442,7 @@
         <v>75</v>
       </c>
       <c r="AG109" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="AH109" t="s" s="2">
         <v>82</v>
@@ -14452,13 +14459,13 @@
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="C110" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="D110" s="2"/>
       <c r="E110" t="s" s="2">
@@ -14484,10 +14491,10 @@
         <v>102</v>
       </c>
       <c r="M110" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="N110" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="O110" s="2"/>
       <c r="P110" s="2"/>
@@ -14517,10 +14524,10 @@
         <v>166</v>
       </c>
       <c r="Z110" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="AA110" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="AB110" t="s" s="2">
         <v>75</v>
@@ -14538,7 +14545,7 @@
         <v>75</v>
       </c>
       <c r="AG110" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="AH110" t="s" s="2">
         <v>82</v>
@@ -14555,13 +14562,13 @@
     </row>
     <row r="111">
       <c r="A111" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="C111" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="D111" s="2"/>
       <c r="E111" t="s" s="2">
@@ -14587,10 +14594,10 @@
         <v>78</v>
       </c>
       <c r="M111" t="s" s="2">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="N111" t="s" s="2">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="O111" s="2"/>
       <c r="P111" s="2"/>
@@ -14641,7 +14648,7 @@
         <v>75</v>
       </c>
       <c r="AG111" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="AH111" t="s" s="2">
         <v>76</v>
@@ -14658,13 +14665,13 @@
     </row>
     <row r="112">
       <c r="A112" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="C112" t="s" s="2">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="D112" s="2"/>
       <c r="E112" t="s" s="2">
@@ -14763,13 +14770,13 @@
     </row>
     <row r="113">
       <c r="A113" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="C113" t="s" s="2">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="D113" s="2"/>
       <c r="E113" t="s" s="2">
@@ -14866,13 +14873,13 @@
     </row>
     <row r="114">
       <c r="A114" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="C114" t="s" s="2">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="D114" s="2"/>
       <c r="E114" t="s" s="2">
@@ -14971,13 +14978,13 @@
     </row>
     <row r="115">
       <c r="A115" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="B115" t="s" s="2">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="C115" t="s" s="2">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="D115" s="2"/>
       <c r="E115" t="s" s="2">
@@ -15076,13 +15083,13 @@
     </row>
     <row r="116">
       <c r="A116" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="B116" t="s" s="2">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="C116" t="s" s="2">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="D116" s="2"/>
       <c r="E116" t="s" s="2">
@@ -15181,13 +15188,13 @@
     </row>
     <row r="117">
       <c r="A117" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="B117" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="C117" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="D117" s="2"/>
       <c r="E117" t="s" s="2">
@@ -15286,13 +15293,13 @@
     </row>
     <row r="118">
       <c r="A118" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="B118" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="C118" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="D118" s="2"/>
       <c r="E118" t="s" s="2">
@@ -15391,13 +15398,13 @@
     </row>
     <row r="119">
       <c r="A119" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="B119" t="s" s="2">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="C119" t="s" s="2">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="D119" s="2"/>
       <c r="E119" t="s" s="2">
@@ -15498,13 +15505,13 @@
     </row>
     <row r="120">
       <c r="A120" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="B120" t="s" s="2">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="C120" t="s" s="2">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="D120" s="2"/>
       <c r="E120" t="s" s="2">
@@ -15530,14 +15537,14 @@
         <v>138</v>
       </c>
       <c r="M120" t="s" s="2">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="N120" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="O120" s="2"/>
       <c r="P120" t="s" s="2">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="Q120" t="s" s="2">
         <v>75</v>
@@ -15574,10 +15581,10 @@
         <v>75</v>
       </c>
       <c r="AC120" t="s" s="2">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="AD120" t="s" s="2">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="AE120" t="s" s="2">
         <v>75</v>
@@ -15586,7 +15593,7 @@
         <v>144</v>
       </c>
       <c r="AG120" t="s" s="2">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="AH120" t="s" s="2">
         <v>76</v>
@@ -15595,7 +15602,7 @@
         <v>77</v>
       </c>
       <c r="AJ120" t="s" s="2">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="AK120" t="s" s="2">
         <v>94</v>
@@ -15603,16 +15610,16 @@
     </row>
     <row r="121">
       <c r="A121" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="B121" t="s" s="2">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="C121" t="s" s="2">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="D121" t="s" s="2">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="E121" t="s" s="2">
         <v>75</v>
@@ -15637,14 +15644,14 @@
         <v>138</v>
       </c>
       <c r="M121" t="s" s="2">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="N121" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="O121" s="2"/>
       <c r="P121" t="s" s="2">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="Q121" t="s" s="2">
         <v>75</v>
@@ -15693,7 +15700,7 @@
         <v>75</v>
       </c>
       <c r="AG121" t="s" s="2">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="AH121" t="s" s="2">
         <v>76</v>
@@ -15702,7 +15709,7 @@
         <v>77</v>
       </c>
       <c r="AJ121" t="s" s="2">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="AK121" t="s" s="2">
         <v>94</v>
@@ -15710,13 +15717,13 @@
     </row>
     <row r="122">
       <c r="A122" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="B122" t="s" s="2">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="C122" t="s" s="2">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="D122" s="2"/>
       <c r="E122" t="s" s="2">
@@ -15813,13 +15820,13 @@
     </row>
     <row r="123">
       <c r="A123" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="B123" t="s" s="2">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="C123" t="s" s="2">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="D123" s="2"/>
       <c r="E123" t="s" s="2">
@@ -15918,13 +15925,13 @@
     </row>
     <row r="124">
       <c r="A124" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="B124" t="s" s="2">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="C124" t="s" s="2">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="D124" s="2"/>
       <c r="E124" t="s" s="2">
@@ -16025,13 +16032,13 @@
     </row>
     <row r="125">
       <c r="A125" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="B125" t="s" s="2">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="C125" t="s" s="2">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="D125" s="2"/>
       <c r="E125" t="s" s="2">
@@ -16132,13 +16139,13 @@
     </row>
     <row r="126">
       <c r="A126" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="B126" t="s" s="2">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="C126" t="s" s="2">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="D126" s="2"/>
       <c r="E126" t="s" s="2">
@@ -16180,7 +16187,7 @@
       </c>
       <c r="R126" s="2"/>
       <c r="S126" t="s" s="2">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="T126" t="s" s="2">
         <v>75</v>
@@ -16239,13 +16246,13 @@
     </row>
     <row r="127">
       <c r="A127" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="B127" t="s" s="2">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="C127" t="s" s="2">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="D127" s="2"/>
       <c r="E127" t="s" s="2">
@@ -16344,13 +16351,13 @@
     </row>
     <row r="128">
       <c r="A128" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="B128" t="s" s="2">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="C128" t="s" s="2">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="D128" s="2"/>
       <c r="E128" t="s" s="2">
@@ -16447,13 +16454,13 @@
     </row>
     <row r="129">
       <c r="A129" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="B129" t="s" s="2">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="C129" t="s" s="2">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="D129" s="2"/>
       <c r="E129" t="s" s="2">
@@ -16552,13 +16559,13 @@
     </row>
     <row r="130">
       <c r="A130" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="B130" t="s" s="2">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="C130" t="s" s="2">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="D130" s="2"/>
       <c r="E130" t="s" s="2">
@@ -16581,70 +16588,70 @@
         <v>83</v>
       </c>
       <c r="L130" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="M130" t="s" s="2">
+        <v>601</v>
+      </c>
+      <c r="N130" t="s" s="2">
+        <v>602</v>
+      </c>
+      <c r="O130" t="s" s="2">
+        <v>603</v>
+      </c>
+      <c r="P130" t="s" s="2">
+        <v>604</v>
+      </c>
+      <c r="Q130" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R130" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="S130" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T130" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U130" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V130" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W130" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X130" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y130" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z130" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA130" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB130" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC130" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD130" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE130" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF130" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG130" t="s" s="2">
         <v>600</v>
-      </c>
-      <c r="N130" t="s" s="2">
-        <v>601</v>
-      </c>
-      <c r="O130" t="s" s="2">
-        <v>602</v>
-      </c>
-      <c r="P130" t="s" s="2">
-        <v>603</v>
-      </c>
-      <c r="Q130" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="R130" t="s" s="2">
-        <v>375</v>
-      </c>
-      <c r="S130" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T130" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U130" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V130" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W130" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X130" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y130" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z130" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA130" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB130" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC130" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD130" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE130" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF130" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG130" t="s" s="2">
-        <v>599</v>
       </c>
       <c r="AH130" t="s" s="2">
         <v>76</v>
@@ -16661,13 +16668,13 @@
     </row>
     <row r="131">
       <c r="A131" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="B131" t="s" s="2">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="C131" t="s" s="2">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="D131" s="2"/>
       <c r="E131" t="s" s="2">
@@ -16693,16 +16700,16 @@
         <v>172</v>
       </c>
       <c r="M131" t="s" s="2">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="N131" t="s" s="2">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="O131" t="s" s="2">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="P131" t="s" s="2">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="Q131" t="s" s="2">
         <v>75</v>
@@ -16727,13 +16734,13 @@
         <v>75</v>
       </c>
       <c r="Y131" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Z131" t="s" s="2">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="AA131" t="s" s="2">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="AB131" t="s" s="2">
         <v>75</v>
@@ -16751,7 +16758,7 @@
         <v>75</v>
       </c>
       <c r="AG131" t="s" s="2">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="AH131" t="s" s="2">
         <v>76</v>
@@ -16768,13 +16775,13 @@
     </row>
     <row r="132">
       <c r="A132" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="B132" t="s" s="2">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="C132" t="s" s="2">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="D132" s="2"/>
       <c r="E132" t="s" s="2">
@@ -16800,16 +16807,16 @@
         <v>149</v>
       </c>
       <c r="M132" t="s" s="2">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="N132" t="s" s="2">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="O132" t="s" s="2">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="P132" t="s" s="2">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="Q132" t="s" s="2">
         <v>75</v>
@@ -16858,7 +16865,7 @@
         <v>75</v>
       </c>
       <c r="AG132" t="s" s="2">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="AH132" t="s" s="2">
         <v>76</v>
@@ -16867,7 +16874,7 @@
         <v>82</v>
       </c>
       <c r="AJ132" t="s" s="2">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="AK132" t="s" s="2">
         <v>94</v>
@@ -16875,13 +16882,13 @@
     </row>
     <row r="133">
       <c r="A133" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="B133" t="s" s="2">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="C133" t="s" s="2">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="D133" s="2"/>
       <c r="E133" t="s" s="2">
@@ -16907,16 +16914,16 @@
         <v>149</v>
       </c>
       <c r="M133" t="s" s="2">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="N133" t="s" s="2">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="O133" t="s" s="2">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="P133" t="s" s="2">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="Q133" t="s" s="2">
         <v>75</v>
@@ -16965,7 +16972,7 @@
         <v>75</v>
       </c>
       <c r="AG133" t="s" s="2">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="AH133" t="s" s="2">
         <v>76</v>
@@ -16982,13 +16989,13 @@
     </row>
     <row r="134">
       <c r="A134" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="B134" t="s" s="2">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="C134" t="s" s="2">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="D134" s="2"/>
       <c r="E134" t="s" s="2">
@@ -17011,19 +17018,19 @@
         <v>75</v>
       </c>
       <c r="L134" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="M134" t="s" s="2">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="N134" t="s" s="2">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="O134" t="s" s="2">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="P134" t="s" s="2">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="Q134" t="s" s="2">
         <v>75</v>
@@ -17072,7 +17079,7 @@
         <v>75</v>
       </c>
       <c r="AG134" t="s" s="2">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="AH134" t="s" s="2">
         <v>76</v>
@@ -17081,21 +17088,21 @@
         <v>77</v>
       </c>
       <c r="AJ134" t="s" s="2">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="AK134" t="s" s="2">
-        <v>627</v>
+        <v>628</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="B135" t="s" s="2">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="C135" t="s" s="2">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="D135" s="2"/>
       <c r="E135" t="s" s="2">
@@ -17118,19 +17125,19 @@
         <v>75</v>
       </c>
       <c r="L135" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="M135" t="s" s="2">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="N135" t="s" s="2">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="O135" t="s" s="2">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="P135" t="s" s="2">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="Q135" t="s" s="2">
         <v>75</v>
@@ -17179,7 +17186,7 @@
         <v>75</v>
       </c>
       <c r="AG135" t="s" s="2">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="AH135" t="s" s="2">
         <v>76</v>
@@ -17188,21 +17195,21 @@
         <v>77</v>
       </c>
       <c r="AJ135" t="s" s="2">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="AK135" t="s" s="2">
-        <v>634</v>
+        <v>635</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="B136" t="s" s="2">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="C136" t="s" s="2">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="D136" s="2"/>
       <c r="E136" t="s" s="2">
@@ -17299,13 +17306,13 @@
     </row>
     <row r="137">
       <c r="A137" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="B137" t="s" s="2">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="C137" t="s" s="2">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="D137" s="2"/>
       <c r="E137" t="s" s="2">
@@ -17404,13 +17411,13 @@
     </row>
     <row r="138">
       <c r="A138" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="B138" t="s" s="2">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="C138" t="s" s="2">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="D138" s="2"/>
       <c r="E138" t="s" s="2">
@@ -17436,16 +17443,16 @@
         <v>102</v>
       </c>
       <c r="M138" t="s" s="2">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="N138" t="s" s="2">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="O138" t="s" s="2">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="P138" t="s" s="2">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="Q138" t="s" s="2">
         <v>75</v>
@@ -17458,7 +17465,7 @@
         <v>75</v>
       </c>
       <c r="U138" t="s" s="2">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="V138" t="s" s="2">
         <v>75</v>
@@ -17473,10 +17480,10 @@
         <v>166</v>
       </c>
       <c r="Z138" t="s" s="2">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="AA138" t="s" s="2">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="AB138" t="s" s="2">
         <v>75</v>
@@ -17494,7 +17501,7 @@
         <v>75</v>
       </c>
       <c r="AG138" t="s" s="2">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="AH138" t="s" s="2">
         <v>76</v>
@@ -17511,13 +17518,13 @@
     </row>
     <row r="139">
       <c r="A139" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="B139" t="s" s="2">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="C139" t="s" s="2">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="D139" s="2"/>
       <c r="E139" t="s" s="2">
@@ -17543,13 +17550,13 @@
         <v>102</v>
       </c>
       <c r="M139" t="s" s="2">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="N139" t="s" s="2">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="O139" t="s" s="2">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="P139" s="2"/>
       <c r="Q139" t="s" s="2">
@@ -17563,7 +17570,7 @@
         <v>75</v>
       </c>
       <c r="U139" t="s" s="2">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="V139" t="s" s="2">
         <v>75</v>
@@ -17578,10 +17585,10 @@
         <v>166</v>
       </c>
       <c r="Z139" t="s" s="2">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="AA139" t="s" s="2">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="AB139" t="s" s="2">
         <v>75</v>
@@ -17599,7 +17606,7 @@
         <v>75</v>
       </c>
       <c r="AG139" t="s" s="2">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="AH139" t="s" s="2">
         <v>76</v>
@@ -17616,13 +17623,13 @@
     </row>
     <row r="140">
       <c r="A140" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="B140" t="s" s="2">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="C140" t="s" s="2">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="D140" s="2"/>
       <c r="E140" t="s" s="2">
@@ -17648,16 +17655,16 @@
         <v>149</v>
       </c>
       <c r="M140" t="s" s="2">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="N140" t="s" s="2">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="O140" t="s" s="2">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="P140" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="Q140" t="s" s="2">
         <v>75</v>
@@ -17670,7 +17677,7 @@
         <v>75</v>
       </c>
       <c r="U140" t="s" s="2">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="V140" t="s" s="2">
         <v>75</v>
@@ -17706,7 +17713,7 @@
         <v>75</v>
       </c>
       <c r="AG140" t="s" s="2">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="AH140" t="s" s="2">
         <v>76</v>
@@ -17723,13 +17730,13 @@
     </row>
     <row r="141">
       <c r="A141" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="B141" t="s" s="2">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="C141" t="s" s="2">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="D141" s="2"/>
       <c r="E141" t="s" s="2">
@@ -17755,10 +17762,10 @@
         <v>149</v>
       </c>
       <c r="M141" t="s" s="2">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="N141" t="s" s="2">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="O141" s="2"/>
       <c r="P141" s="2"/>
@@ -17773,7 +17780,7 @@
         <v>75</v>
       </c>
       <c r="U141" t="s" s="2">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="V141" t="s" s="2">
         <v>75</v>
@@ -17809,7 +17816,7 @@
         <v>75</v>
       </c>
       <c r="AG141" t="s" s="2">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="AH141" t="s" s="2">
         <v>76</v>
@@ -17826,17 +17833,17 @@
     </row>
     <row r="142">
       <c r="A142" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="B142" t="s" s="2">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="C142" t="s" s="2">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="D142" s="2"/>
       <c r="E142" t="s" s="2">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="F142" s="2"/>
       <c r="G142" t="s" s="2">
@@ -17858,10 +17865,10 @@
         <v>149</v>
       </c>
       <c r="M142" t="s" s="2">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="N142" t="s" s="2">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="O142" s="2"/>
       <c r="P142" s="2"/>
@@ -17876,7 +17883,7 @@
         <v>75</v>
       </c>
       <c r="U142" t="s" s="2">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="V142" t="s" s="2">
         <v>75</v>
@@ -17912,7 +17919,7 @@
         <v>75</v>
       </c>
       <c r="AG142" t="s" s="2">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="AH142" t="s" s="2">
         <v>76</v>
@@ -17929,17 +17936,17 @@
     </row>
     <row r="143">
       <c r="A143" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="B143" t="s" s="2">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="C143" t="s" s="2">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="D143" s="2"/>
       <c r="E143" t="s" s="2">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="F143" s="2"/>
       <c r="G143" t="s" s="2">
@@ -17961,13 +17968,13 @@
         <v>149</v>
       </c>
       <c r="M143" t="s" s="2">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="N143" t="s" s="2">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="O143" t="s" s="2">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="P143" s="2"/>
       <c r="Q143" t="s" s="2">
@@ -17981,7 +17988,7 @@
         <v>75</v>
       </c>
       <c r="U143" t="s" s="2">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="V143" t="s" s="2">
         <v>75</v>
@@ -18017,7 +18024,7 @@
         <v>75</v>
       </c>
       <c r="AG143" t="s" s="2">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="AH143" t="s" s="2">
         <v>76</v>
@@ -18034,17 +18041,17 @@
     </row>
     <row r="144">
       <c r="A144" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="B144" t="s" s="2">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="C144" t="s" s="2">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="D144" s="2"/>
       <c r="E144" t="s" s="2">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="F144" s="2"/>
       <c r="G144" t="s" s="2">
@@ -18066,10 +18073,10 @@
         <v>149</v>
       </c>
       <c r="M144" t="s" s="2">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="N144" t="s" s="2">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="O144" s="2"/>
       <c r="P144" s="2"/>
@@ -18120,7 +18127,7 @@
         <v>75</v>
       </c>
       <c r="AG144" t="s" s="2">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="AH144" t="s" s="2">
         <v>76</v>
@@ -18137,17 +18144,17 @@
     </row>
     <row r="145">
       <c r="A145" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="B145" t="s" s="2">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="C145" t="s" s="2">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="D145" s="2"/>
       <c r="E145" t="s" s="2">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="F145" s="2"/>
       <c r="G145" t="s" s="2">
@@ -18169,10 +18176,10 @@
         <v>149</v>
       </c>
       <c r="M145" t="s" s="2">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="N145" t="s" s="2">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="O145" s="2"/>
       <c r="P145" s="2"/>
@@ -18187,7 +18194,7 @@
         <v>75</v>
       </c>
       <c r="U145" t="s" s="2">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="V145" t="s" s="2">
         <v>75</v>
@@ -18223,7 +18230,7 @@
         <v>75</v>
       </c>
       <c r="AG145" t="s" s="2">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="AH145" t="s" s="2">
         <v>76</v>
@@ -18240,13 +18247,13 @@
     </row>
     <row r="146">
       <c r="A146" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="B146" t="s" s="2">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="C146" t="s" s="2">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="D146" s="2"/>
       <c r="E146" t="s" s="2">
@@ -18272,13 +18279,13 @@
         <v>149</v>
       </c>
       <c r="M146" t="s" s="2">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="N146" t="s" s="2">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="O146" t="s" s="2">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="P146" s="2"/>
       <c r="Q146" t="s" s="2">
@@ -18328,7 +18335,7 @@
         <v>75</v>
       </c>
       <c r="AG146" t="s" s="2">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="AH146" t="s" s="2">
         <v>76</v>
@@ -18345,13 +18352,13 @@
     </row>
     <row r="147">
       <c r="A147" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="B147" t="s" s="2">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="C147" t="s" s="2">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="D147" s="2"/>
       <c r="E147" t="s" s="2">
@@ -18377,14 +18384,14 @@
         <v>199</v>
       </c>
       <c r="M147" t="s" s="2">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="N147" t="s" s="2">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="O147" s="2"/>
       <c r="P147" t="s" s="2">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="Q147" t="s" s="2">
         <v>75</v>
@@ -18397,7 +18404,7 @@
         <v>75</v>
       </c>
       <c r="U147" t="s" s="2">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="V147" t="s" s="2">
         <v>75</v>
@@ -18433,7 +18440,7 @@
         <v>75</v>
       </c>
       <c r="AG147" t="s" s="2">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="AH147" t="s" s="2">
         <v>76</v>
@@ -18450,13 +18457,13 @@
     </row>
     <row r="148">
       <c r="A148" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="B148" t="s" s="2">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="C148" t="s" s="2">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="D148" s="2"/>
       <c r="E148" t="s" s="2">
@@ -18482,14 +18489,14 @@
         <v>205</v>
       </c>
       <c r="M148" t="s" s="2">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="N148" t="s" s="2">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="O148" s="2"/>
       <c r="P148" t="s" s="2">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="Q148" t="s" s="2">
         <v>75</v>
@@ -18538,7 +18545,7 @@
         <v>75</v>
       </c>
       <c r="AG148" t="s" s="2">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="AH148" t="s" s="2">
         <v>76</v>
@@ -18555,13 +18562,13 @@
     </row>
     <row r="149">
       <c r="A149" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="B149" t="s" s="2">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="C149" t="s" s="2">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="D149" s="2"/>
       <c r="E149" t="s" s="2">
@@ -18584,19 +18591,19 @@
         <v>75</v>
       </c>
       <c r="L149" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="M149" t="s" s="2">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="N149" t="s" s="2">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="O149" t="s" s="2">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="P149" t="s" s="2">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="Q149" t="s" s="2">
         <v>75</v>
@@ -18645,7 +18652,7 @@
         <v>75</v>
       </c>
       <c r="AG149" t="s" s="2">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="AH149" t="s" s="2">
         <v>76</v>
@@ -18662,13 +18669,13 @@
     </row>
     <row r="150">
       <c r="A150" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="B150" t="s" s="2">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="C150" t="s" s="2">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="D150" s="2"/>
       <c r="E150" t="s" s="2">
@@ -18765,13 +18772,13 @@
     </row>
     <row r="151">
       <c r="A151" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="B151" t="s" s="2">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="C151" t="s" s="2">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="D151" s="2"/>
       <c r="E151" t="s" s="2">
@@ -18870,17 +18877,17 @@
     </row>
     <row r="152">
       <c r="A152" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="B152" t="s" s="2">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="C152" t="s" s="2">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="D152" s="2"/>
       <c r="E152" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="F152" s="2"/>
       <c r="G152" t="s" s="2">
@@ -18902,10 +18909,10 @@
         <v>126</v>
       </c>
       <c r="M152" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="N152" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="O152" t="s" s="2">
         <v>129</v>
@@ -18960,7 +18967,7 @@
         <v>75</v>
       </c>
       <c r="AG152" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AH152" t="s" s="2">
         <v>76</v>
@@ -18977,13 +18984,13 @@
     </row>
     <row r="153">
       <c r="A153" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="B153" t="s" s="2">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="C153" t="s" s="2">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="D153" s="2"/>
       <c r="E153" t="s" s="2">
@@ -19009,14 +19016,14 @@
         <v>172</v>
       </c>
       <c r="M153" t="s" s="2">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="N153" t="s" s="2">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="O153" s="2"/>
       <c r="P153" t="s" s="2">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="Q153" t="s" s="2">
         <v>75</v>
@@ -19044,10 +19051,10 @@
         <v>177</v>
       </c>
       <c r="Z153" t="s" s="2">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="AA153" t="s" s="2">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="AB153" t="s" s="2">
         <v>75</v>
@@ -19065,7 +19072,7 @@
         <v>75</v>
       </c>
       <c r="AG153" t="s" s="2">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="AH153" t="s" s="2">
         <v>76</v>
@@ -19082,13 +19089,13 @@
     </row>
     <row r="154">
       <c r="A154" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="B154" t="s" s="2">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="C154" t="s" s="2">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="D154" s="2"/>
       <c r="E154" t="s" s="2">
@@ -19111,17 +19118,17 @@
         <v>75</v>
       </c>
       <c r="L154" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="M154" t="s" s="2">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="N154" t="s" s="2">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="O154" s="2"/>
       <c r="P154" t="s" s="2">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="Q154" t="s" s="2">
         <v>75</v>
@@ -19170,7 +19177,7 @@
         <v>75</v>
       </c>
       <c r="AG154" t="s" s="2">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="AH154" t="s" s="2">
         <v>76</v>
@@ -19187,13 +19194,13 @@
     </row>
     <row r="155">
       <c r="A155" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="B155" t="s" s="2">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="C155" t="s" s="2">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="D155" s="2"/>
       <c r="E155" t="s" s="2">
@@ -19216,17 +19223,17 @@
         <v>75</v>
       </c>
       <c r="L155" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="M155" t="s" s="2">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="N155" t="s" s="2">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="O155" s="2"/>
       <c r="P155" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="Q155" t="s" s="2">
         <v>75</v>
@@ -19275,7 +19282,7 @@
         <v>75</v>
       </c>
       <c r="AG155" t="s" s="2">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="AH155" t="s" s="2">
         <v>76</v>
@@ -19292,13 +19299,13 @@
     </row>
     <row r="156">
       <c r="A156" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="B156" t="s" s="2">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="C156" t="s" s="2">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="D156" s="2"/>
       <c r="E156" t="s" s="2">
@@ -19321,17 +19328,17 @@
         <v>75</v>
       </c>
       <c r="L156" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="M156" t="s" s="2">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="N156" t="s" s="2">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="O156" s="2"/>
       <c r="P156" t="s" s="2">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="Q156" t="s" s="2">
         <v>75</v>
@@ -19380,7 +19387,7 @@
         <v>75</v>
       </c>
       <c r="AG156" t="s" s="2">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="AH156" t="s" s="2">
         <v>76</v>
@@ -19397,13 +19404,13 @@
     </row>
     <row r="157">
       <c r="A157" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="B157" t="s" s="2">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="C157" t="s" s="2">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="D157" s="2"/>
       <c r="E157" t="s" s="2">
@@ -19426,17 +19433,17 @@
         <v>75</v>
       </c>
       <c r="L157" t="s" s="2">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="M157" t="s" s="2">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="N157" t="s" s="2">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="O157" s="2"/>
       <c r="P157" t="s" s="2">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="Q157" t="s" s="2">
         <v>75</v>
@@ -19485,7 +19492,7 @@
         <v>75</v>
       </c>
       <c r="AG157" t="s" s="2">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="AH157" t="s" s="2">
         <v>76</v>
